--- a/docs/StructureDefinition-VitalSignsBP.xlsx
+++ b/docs/StructureDefinition-VitalSignsBP.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VitalSignsBP.xlsx
+++ b/docs/StructureDefinition-VitalSignsBP.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VitalSignsBP.xlsx
+++ b/docs/StructureDefinition-VitalSignsBP.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VitalSignsBP.xlsx
+++ b/docs/StructureDefinition-VitalSignsBP.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VitalSignsBP.xlsx
+++ b/docs/StructureDefinition-VitalSignsBP.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1300,10 +1300,12 @@
 Dim.VitalType.VUID</t>
   </si>
   <si>
-    <t>Observation.ObservationCode,Observation.Extension[ObservationExtension].BMI</t>
-  </si>
-  <si>
-    <t>vital.vuid (&gt;120.51-99.99),vital.name (&gt;120.51-.01)</t>
+    <t>Observation.ObservationCode
+Observation.Extension[ObservationExtension].BMI</t>
+  </si>
+  <si>
+    <t>vital.vuid (&gt;120.51-99.99)
+vital.name (&gt;120.51-.01)</t>
   </si>
   <si>
     <t>Observation.code.text</t>
@@ -1460,10 +1462,12 @@
     <t>657: source value based on GMRV VITAL MEASUREMENT - DATE/TIME VITALS TAKEN (120.5-.01)</t>
   </si>
   <si>
-    <t>Vital.VitalSign.VitalSignTakenDateTime,Vital.VitalSignQualifier.VitalSignTakenDateTime</t>
-  </si>
-  <si>
-    <t>Observation.ObservationCode[Observation].Description,Observation.ObservationMethods[ObservationMethod].Description</t>
+    <t>Vital.VitalSign.VitalSignTakenDateTime
+Vital.VitalSignQualifier.VitalSignTakenDateTime</t>
+  </si>
+  <si>
+    <t>Observation.ObservationCode[Observation].Description
+Observation.ObservationMethods[ObservationMethod].Description</t>
   </si>
   <si>
     <t>vital.taken</t>
@@ -1525,10 +1529,13 @@
     <t>Vital.VitalSign.LocationIEN</t>
   </si>
   <si>
-    <t>Observation.EnteredAt,Observation.Extension[ObservationExtension].Location</t>
-  </si>
-  <si>
-    <t>vital.facility (&gt;44-3),vital.facility (&gt;44-.07),vital.location (&gt;44-.01)</t>
+    <t>Observation.EnteredAt
+Observation.Extension[ObservationExtension].Location</t>
+  </si>
+  <si>
+    <t>vital.facility (&gt;44-3)
+vital.facility (&gt;44-.07)
+vital.location (&gt;44-.01)</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -1638,13 +1645,21 @@
     <t>664: source value based on GMRV VITAL MEASUREMENT - RATE (120.5-1.2) if VUID not = 4500634</t>
   </si>
   <si>
-    <t>Vital.VitalSign.Diastolic,Vital.VitalSign.Systolic,Vital.VitalSign.VitalResult,Vital.VitalSign.VitalResultNumeric</t>
-  </si>
-  <si>
-    <t>Observation.ObservationValue,Observation.Extension[ObservationExtension].BMI</t>
-  </si>
-  <si>
-    <t>vital.value,vital.units,vital.metricvalue,vital.metricUnits,vital.bmi</t>
+    <t>Vital.VitalSign.Diastolic
+Vital.VitalSign.Systolic
+Vital.VitalSign.VitalResult
+Vital.VitalSign.VitalResultNumeric</t>
+  </si>
+  <si>
+    <t>Observation.ObservationValue
+Observation.Extension[ObservationExtension].BMI</t>
+  </si>
+  <si>
+    <t>vital.value
+vital.units
+vital.metricvalue
+vital.metricUnits
+vital.bmi</t>
   </si>
   <si>
     <t>SN.2  / CQ - N/A</t>
@@ -3034,9 +3049,9 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="129.11328125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="84.66015625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="97.80859375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="53.08203125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="38.45703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="53.39453125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="39.4609375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="255.0" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-VitalSignsBP.xlsx
+++ b/docs/StructureDefinition-VitalSignsBP.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VitalSignsBP.xlsx
+++ b/docs/StructureDefinition-VitalSignsBP.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
